--- a/public/exports/Salary-Wages-2022-9-1and2022-9-30.xlsx
+++ b/public/exports/Salary-Wages-2022-9-1and2022-9-30.xlsx
@@ -37,28 +37,40 @@
     <t>Balance Cash</t>
   </si>
   <si>
-    <t>T.Velappan</t>
-  </si>
-  <si>
-    <t>Bala Krishnan</t>
-  </si>
-  <si>
-    <t>Kumara Swamy</t>
-  </si>
-  <si>
-    <t>Kanaka Mani</t>
-  </si>
-  <si>
-    <t>Anusha(KGL)</t>
-  </si>
-  <si>
-    <t>Sabiya PPM - Institute</t>
-  </si>
-  <si>
-    <t>Bama - PPM Institute</t>
-  </si>
-  <si>
-    <t>Selvaraj</t>
+    <t>Chandrika</t>
+  </si>
+  <si>
+    <t>Hymavathy</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Marry Saroja</t>
+  </si>
+  <si>
+    <t>Sreeja</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>Neela varnam</t>
+  </si>
+  <si>
+    <t>N.Abisha</t>
+  </si>
+  <si>
+    <t>Soba</t>
+  </si>
+  <si>
+    <t>Subitha</t>
+  </si>
+  <si>
+    <t>Thenmathi</t>
+  </si>
+  <si>
+    <t>Dheepika</t>
   </si>
 </sst>
 </file>
@@ -161,7 +173,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -170,7 +182,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>8500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -181,16 +193,16 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>8700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -201,16 +213,16 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -221,16 +233,16 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>4250</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>4462</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -241,16 +253,16 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>4502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -261,16 +273,16 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>5800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -281,16 +293,16 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>732</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -301,21 +313,101 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>5600</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
-      <c r="G11" s="2">
-        <v>42132</v>
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="G15" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
